--- a/sols/[2022-03-13 23-28]-S-Feasible-22-[Breaks=False-Traffic=False-Buses=None].xlsx
+++ b/sols/[2022-03-13 23-28]-S-Feasible-22-[Breaks=False-Traffic=False-Buses=None].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.temp\.dev\.aztool\atopt\sols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2A2D3-8A12-4D6B-9EEC-E17177579149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F61A0-0413-46AE-8A0E-517F9BDEE39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -138,70 +144,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -237,13 +185,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -251,6 +192,62 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,10 +263,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD4B42FE-C151-491C-B049-72E0E4FA219B}" name="Table1" displayName="Table1" ref="A1:G153" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD4B42FE-C151-491C-B049-72E0E4FA219B}" name="Table1" displayName="Table1" ref="A1:G153" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:G153" xr:uid="{AD4B42FE-C151-491C-B049-72E0E4FA219B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AE39C19E-6D70-466B-990E-C0EE97BCBAA7}" name="trip" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AE39C19E-6D70-466B-990E-C0EE97BCBAA7}" name="trip" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{44767BA4-4C43-44FF-AFCA-9A67A07AF1C0}" name="initial_depot"/>
     <tableColumn id="3" xr3:uid="{F3E0F1DA-4A50-4026-9654-812DDB1BA6E1}" name="final_depot"/>
     <tableColumn id="6" xr3:uid="{FB1D71D2-C211-4E9F-BCE6-3308295C55A8}" name="trip_duration"/>
@@ -602,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3583,8 +3580,9 @@
       <c r="G129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3768,7 +3766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3814,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3837,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3928,6 +3926,7 @@
       <c r="G144">
         <v>10</v>
       </c>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
@@ -4138,12 +4137,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Akadimia"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Akadimia"</formula>
     </cfRule>
   </conditionalFormatting>
